--- a/results/Depth/Molecule_2/all solutions.xlsx
+++ b/results/Depth/Molecule_2/all solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koen\Desktop\projecten\OriBunshi\results\Depth\Molecule_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6767197-A1C5-4D6A-B6EC-3D320ADBC7ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D69805C2-6CE9-428F-BD1D-846F787E4466}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{11320BA8-5264-4C48-95D1-5C834620DC66}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,15 +80,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -389,25 +403,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AA6828-EBCC-4BFB-A7F9-CD05840F6456}">
-  <dimension ref="D4:H20"/>
+  <dimension ref="D4:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="13.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E10" s="1">
         <v>0</v>
       </c>
@@ -415,7 +432,7 @@
         <v>18049040</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E11">
         <v>-1</v>
       </c>
@@ -423,7 +440,7 @@
         <v>15828467</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E12">
         <v>-2</v>
       </c>
@@ -435,7 +452,7 @@
         <v>-0.811233166397618</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E13">
         <v>-3</v>
       </c>
@@ -443,7 +460,7 @@
         <v>1471987</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E14">
         <v>-4</v>
       </c>
@@ -451,7 +468,7 @@
         <v>258992</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E15">
         <v>-5</v>
       </c>
@@ -459,12 +476,16 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E16">
         <v>-6</v>
       </c>
       <c r="F16">
         <v>5182</v>
+      </c>
+      <c r="I16" s="2">
+        <f xml:space="preserve"> F19 / SUM(F10:F19)</f>
+        <v>4.7744572647640423E-8</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.35">
@@ -501,5 +522,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>